--- a/doc/KeyV1/KeyV1_LipidMapName/spname_dict_V1_newname_corrected.xlsx
+++ b/doc/KeyV1/KeyV1_LipidMapName/spname_dict_V1_newname_corrected.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1\KeyV1_newname\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18841,11 +18841,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I477" sqref="I477"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
